--- a/data/trans_orig/P14B03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18F0A8BE-780B-4804-8A94-C2C01CEF643E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C01221AD-6F72-446A-8134-545E7245A473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7650B557-0F7C-487E-9880-0571F6C29EBB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F0A540C-40B2-4FBC-BC04-05B66302689D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -79,25 +79,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>33,97%</t>
+    <t>34,11%</t>
   </si>
   <si>
     <t>29,55%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
   </si>
   <si>
     <t>21,52%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,7 +106,7 @@
     <t>88,81%</t>
   </si>
   <si>
-    <t>66,03%</t>
+    <t>65,89%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,19 +115,19 @@
     <t>70,45%</t>
   </si>
   <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>30,3%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
   </si>
   <si>
     <t>30,39%</t>
   </si>
   <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
   </si>
   <si>
     <t>69,7%</t>
   </si>
   <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
   </si>
   <si>
     <t>69,54%</t>
   </si>
   <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
   </si>
   <si>
     <t>69,61%</t>
   </si>
   <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -196,55 +196,55 @@
     <t>34,39%</t>
   </si>
   <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
   </si>
   <si>
     <t>40,4%</t>
   </si>
   <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
   </si>
   <si>
     <t>37,78%</t>
   </si>
   <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
   </si>
   <si>
     <t>59,6%</t>
   </si>
   <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
   </si>
   <si>
     <t>62,22%</t>
   </si>
   <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -253,55 +253,55 @@
     <t>38,45%</t>
   </si>
   <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
   </si>
   <si>
     <t>44,87%</t>
   </si>
   <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
   </si>
   <si>
     <t>41,99%</t>
   </si>
   <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
   </si>
   <si>
     <t>61,55%</t>
   </si>
   <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
   </si>
   <si>
     <t>55,13%</t>
   </si>
   <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
   </si>
   <si>
     <t>58,01%</t>
   </si>
   <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -310,109 +310,103 @@
     <t>22,72%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
   </si>
   <si>
     <t>27,8%</t>
   </si>
   <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
   </si>
   <si>
     <t>77,28%</t>
   </si>
   <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
   </si>
   <si>
     <t>68,57%</t>
   </si>
   <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
   </si>
   <si>
     <t>72,2%</t>
   </si>
   <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
   </si>
   <si>
     <t>30,03%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
+    <t>25,69%</t>
   </si>
   <si>
     <t>35,95%</t>
   </si>
   <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
   </si>
   <si>
     <t>33,38%</t>
   </si>
   <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
   </si>
   <si>
     <t>69,97%</t>
   </si>
   <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
+    <t>74,31%</t>
   </si>
   <si>
     <t>64,05%</t>
   </si>
   <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
   </si>
   <si>
     <t>66,62%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -751,313 +745,319 @@
     <t>8,86%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
   </si>
   <si>
     <t>91,14%</t>
   </si>
   <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>89,04%</t>
   </si>
   <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
   </si>
   <si>
     <t>90,48%</t>
   </si>
   <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>87,21%</t>
   </si>
   <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>13,75%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
   </si>
   <si>
     <t>12,02%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>86,25%</t>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
   </si>
   <si>
     <t>87,98%</t>
   </si>
   <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>14,04%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>82,23%</t>
   </si>
   <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
   </si>
   <si>
     <t>88,24%</t>
   </si>
   <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>85,96%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>15,83%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>84,17%</t>
   </si>
   <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>87,39%</t>
   </si>
   <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
   </si>
   <si>
     <t>9,84%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>7,85%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>14,51%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>90,16%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>92,15%</t>
   </si>
   <si>
     <t>85,1%</t>
   </si>
   <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>85,49%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB83F2A-D624-48C7-BFE2-2B642BF98297}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA57AA11-569A-4C53-99CF-5C99378A8F35}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2374,7 +2374,7 @@
         <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="H19" s="7">
         <v>250</v>
@@ -2383,13 +2383,13 @@
         <v>265381</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>402</v>
@@ -2398,13 +2398,13 @@
         <v>435720</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2419,13 @@
         <v>396798</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>434</v>
@@ -2434,13 +2434,13 @@
         <v>472791</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>799</v>
@@ -2449,13 +2449,13 @@
         <v>869589</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,7 +2511,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F400D5DD-96E6-4742-A675-4C6A6D4B4B20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0281989-ECD0-4D0F-8D91-6EFA6E885864}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2549,7 +2549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2656,13 +2656,13 @@
         <v>7575</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2671,13 +2671,13 @@
         <v>4948</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -2686,13 +2686,13 @@
         <v>12523</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,13 +2707,13 @@
         <v>15758</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -2722,13 +2722,13 @@
         <v>13107</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -2737,13 +2737,13 @@
         <v>28865</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,13 +2811,13 @@
         <v>16355</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -2826,13 +2826,13 @@
         <v>43696</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -2841,13 +2841,13 @@
         <v>60051</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2862,13 @@
         <v>63367</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>66</v>
@@ -2877,13 +2877,13 @@
         <v>70159</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>132</v>
@@ -2892,13 +2892,13 @@
         <v>133526</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2966,13 @@
         <v>34629</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -2981,13 +2981,13 @@
         <v>48451</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -2996,13 +2996,13 @@
         <v>83080</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3017,13 @@
         <v>123657</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -3032,13 +3032,13 @@
         <v>127630</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>223</v>
@@ -3047,13 +3047,13 @@
         <v>251286</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3121,13 @@
         <v>34652</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -3136,13 +3136,13 @@
         <v>51334</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -3151,13 +3151,13 @@
         <v>85986</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3172,13 @@
         <v>73758</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>76</v>
@@ -3187,13 +3187,13 @@
         <v>89214</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>145</v>
@@ -3202,13 +3202,13 @@
         <v>162972</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3276,13 @@
         <v>21396</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -3291,13 +3291,13 @@
         <v>28751</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -3306,13 +3306,13 @@
         <v>50148</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3327,13 @@
         <v>123026</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>126</v>
@@ -3342,13 +3342,13 @@
         <v>152114</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>252</v>
@@ -3357,13 +3357,13 @@
         <v>275139</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3431,13 @@
         <v>114608</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>152</v>
@@ -3446,13 +3446,13 @@
         <v>177181</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>266</v>
@@ -3461,13 +3461,13 @@
         <v>291789</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3482,13 @@
         <v>399566</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>387</v>
@@ -3497,13 +3497,13 @@
         <v>452222</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>781</v>
@@ -3512,13 +3512,13 @@
         <v>851788</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,7 +3574,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3595,7 +3595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E78E8BD-7E86-4391-91EE-C093A4FD13F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0156ED-6317-4E7F-86AB-AA907B83D295}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3612,7 +3612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3719,13 +3719,13 @@
         <v>1973</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3734,13 +3734,13 @@
         <v>4338</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3749,13 +3749,13 @@
         <v>6311</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3770,13 @@
         <v>20298</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -3785,13 +3785,13 @@
         <v>35229</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>117</v>
@@ -3800,13 +3800,13 @@
         <v>55527</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3874,13 @@
         <v>11520</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -3889,13 +3889,13 @@
         <v>22259</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -3904,13 +3904,13 @@
         <v>33778</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3925,13 @@
         <v>109422</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>261</v>
@@ -3940,13 +3940,13 @@
         <v>120822</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>419</v>
@@ -3955,13 +3955,13 @@
         <v>230245</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4029,13 @@
         <v>10233</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -4044,13 +4044,13 @@
         <v>35805</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -4059,13 +4059,13 @@
         <v>46038</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4080,13 @@
         <v>169262</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>304</v>
@@ -4095,10 +4095,10 @@
         <v>167788</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>284</v>
@@ -4500,7 +4500,7 @@
         <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="H19" s="7">
         <v>230</v>
@@ -4509,13 +4509,13 @@
         <v>133553</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>307</v>
@@ -4524,10 +4524,10 @@
         <v>198571</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>331</v>
@@ -4548,10 +4548,10 @@
         <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>1188</v>
@@ -4560,13 +4560,13 @@
         <v>763017</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>1975</v>
@@ -4575,13 +4575,13 @@
         <v>1358525</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,7 +4637,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B03-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C01221AD-6F72-446A-8134-545E7245A473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{660138FA-2987-47E9-A821-26D0C9D4D827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F0A540C-40B2-4FBC-BC04-05B66302689D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6757872C-6252-486E-8925-CD6BE7934784}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -79,25 +79,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>34,11%</t>
+    <t>35,26%</t>
   </si>
   <si>
     <t>29,55%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
   </si>
   <si>
     <t>21,52%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,7 +106,7 @@
     <t>88,81%</t>
   </si>
   <si>
-    <t>65,89%</t>
+    <t>64,74%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,193 +115,193 @@
     <t>70,45%</t>
   </si>
   <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>30,3%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
   </si>
   <si>
     <t>30,39%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
   </si>
   <si>
     <t>69,7%</t>
   </si>
   <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
   </si>
   <si>
     <t>69,54%</t>
   </si>
   <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>69,61%</t>
   </si>
   <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
   </si>
   <si>
     <t>40,4%</t>
   </si>
   <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
   </si>
   <si>
     <t>37,78%</t>
   </si>
   <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
   </si>
   <si>
     <t>59,6%</t>
   </si>
   <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
   </si>
   <si>
     <t>62,22%</t>
   </si>
   <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>38,45%</t>
   </si>
   <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
   </si>
   <si>
     <t>44,87%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
   </si>
   <si>
     <t>41,99%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
   </si>
   <si>
     <t>61,55%</t>
   </si>
   <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
   </si>
   <si>
     <t>55,13%</t>
   </si>
   <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
   </si>
   <si>
     <t>58,01%</t>
   </si>
   <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -310,433 +310,439 @@
     <t>22,72%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
   </si>
   <si>
     <t>27,8%</t>
   </si>
   <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
   </si>
   <si>
     <t>77,28%</t>
   </si>
   <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
   </si>
   <si>
     <t>68,57%</t>
   </si>
   <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
   </si>
   <si>
     <t>72,2%</t>
   </si>
   <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
   </si>
   <si>
     <t>30,03%</t>
   </si>
   <si>
-    <t>25,69%</t>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
   </si>
   <si>
     <t>35,95%</t>
   </si>
   <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
   </si>
   <si>
     <t>33,38%</t>
   </si>
   <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
   </si>
   <si>
     <t>69,97%</t>
   </si>
   <si>
-    <t>74,31%</t>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
   </si>
   <si>
     <t>64,05%</t>
   </si>
   <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
   </si>
   <si>
     <t>66,62%</t>
   </si>
   <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya hipertensión le limita en 2015 (Tasa respuesta: 15,94%)</t>
+    <t>Población cuya hipertensión le limita en 2016 (Tasa respuesta: 15,94%)</t>
   </si>
   <si>
     <t>32,47%</t>
   </si>
   <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
   </si>
   <si>
     <t>27,41%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
   </si>
   <si>
     <t>30,26%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
   </si>
   <si>
     <t>67,53%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
   </si>
   <si>
     <t>72,59%</t>
   </si>
   <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>69,74%</t>
   </si>
   <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
   </si>
   <si>
     <t>20,52%</t>
   </si>
   <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
   </si>
   <si>
     <t>38,38%</t>
   </si>
   <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>79,48%</t>
   </si>
   <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
   </si>
   <si>
     <t>61,62%</t>
   </si>
   <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
   </si>
   <si>
     <t>68,98%</t>
   </si>
   <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
   </si>
   <si>
     <t>27,52%</t>
   </si>
   <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
   </si>
   <si>
     <t>24,85%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
   </si>
   <si>
     <t>78,12%</t>
   </si>
   <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
   </si>
   <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
   </si>
   <si>
     <t>75,15%</t>
   </si>
   <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
   </si>
   <si>
     <t>31,96%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
   </si>
   <si>
     <t>36,52%</t>
   </si>
   <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
   </si>
   <si>
     <t>34,54%</t>
   </si>
   <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
   </si>
   <si>
     <t>68,04%</t>
   </si>
   <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
   </si>
   <si>
     <t>63,48%</t>
   </si>
   <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>65,46%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
   </si>
   <si>
     <t>85,18%</t>
   </si>
   <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>84,1%</t>
   </si>
   <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>22,29%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
   </si>
   <si>
     <t>28,15%</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
   </si>
   <si>
     <t>25,52%</t>
   </si>
   <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
   </si>
   <si>
     <t>77,71%</t>
   </si>
   <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
   </si>
   <si>
     <t>71,85%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
   </si>
   <si>
     <t>74,48%</t>
   </si>
   <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
   </si>
   <si>
     <t>Población cuya hipertensión le limita en 2023 (Tasa respuesta: 26,1%)</t>
@@ -814,9 +820,6 @@
     <t>19,92%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
     <t>9,89%</t>
   </si>
   <si>
@@ -839,9 +842,6 @@
   </si>
   <si>
     <t>88,47%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
   </si>
   <si>
     <t>83,67%</t>
@@ -1469,7 +1469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA57AA11-569A-4C53-99CF-5C99378A8F35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B42EE3-4356-41D0-B3CD-2F0BC6C04322}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2374,7 +2374,7 @@
         <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>250</v>
@@ -2383,13 +2383,13 @@
         <v>265381</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>402</v>
@@ -2398,13 +2398,13 @@
         <v>435720</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2419,13 @@
         <v>396798</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>434</v>
@@ -2434,13 +2434,13 @@
         <v>472791</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>799</v>
@@ -2449,13 +2449,13 @@
         <v>869589</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,7 +2511,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0281989-ECD0-4D0F-8D91-6EFA6E885864}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB503ED4-FC09-4150-8B2E-8A110E6ACA89}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2549,7 +2549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2656,13 +2656,13 @@
         <v>7575</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2671,13 +2671,13 @@
         <v>4948</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -2686,13 +2686,13 @@
         <v>12523</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,13 +2707,13 @@
         <v>15758</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -2722,13 +2722,13 @@
         <v>13107</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -2737,13 +2737,13 @@
         <v>28865</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,13 +2811,13 @@
         <v>16355</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -2826,13 +2826,13 @@
         <v>43696</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -2841,13 +2841,13 @@
         <v>60051</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2862,13 @@
         <v>63367</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>66</v>
@@ -2877,13 +2877,13 @@
         <v>70159</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>132</v>
@@ -2892,13 +2892,13 @@
         <v>133526</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2966,13 @@
         <v>34629</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -2981,13 +2981,13 @@
         <v>48451</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -2996,13 +2996,13 @@
         <v>83080</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3017,13 @@
         <v>123657</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -3032,13 +3032,13 @@
         <v>127630</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>223</v>
@@ -3047,13 +3047,13 @@
         <v>251286</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3121,13 @@
         <v>34652</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -3136,13 +3136,13 @@
         <v>51334</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -3151,13 +3151,13 @@
         <v>85986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3172,13 @@
         <v>73758</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>76</v>
@@ -3187,13 +3187,13 @@
         <v>89214</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>145</v>
@@ -3202,13 +3202,13 @@
         <v>162972</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3276,13 @@
         <v>21396</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -3291,13 +3291,13 @@
         <v>28751</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -3306,13 +3306,13 @@
         <v>50148</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3327,13 @@
         <v>123026</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>126</v>
@@ -3342,13 +3342,13 @@
         <v>152114</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>252</v>
@@ -3357,13 +3357,13 @@
         <v>275139</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3431,13 @@
         <v>114608</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>152</v>
@@ -3446,13 +3446,13 @@
         <v>177181</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>266</v>
@@ -3461,13 +3461,13 @@
         <v>291789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3482,13 @@
         <v>399566</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>387</v>
@@ -3497,13 +3497,13 @@
         <v>452222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>781</v>
@@ -3512,13 +3512,13 @@
         <v>851788</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,7 +3574,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3595,7 +3595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0156ED-6317-4E7F-86AB-AA907B83D295}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFDD15D-B186-4A09-A460-93A9BA064E19}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3612,7 +3612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3719,13 +3719,13 @@
         <v>1973</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3734,13 +3734,13 @@
         <v>4338</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3749,13 +3749,13 @@
         <v>6311</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3770,13 @@
         <v>20298</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -3785,13 +3785,13 @@
         <v>35229</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>117</v>
@@ -3800,13 +3800,13 @@
         <v>55527</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3874,13 @@
         <v>11520</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -3889,13 +3889,13 @@
         <v>22259</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -3904,13 +3904,13 @@
         <v>33778</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3925,13 @@
         <v>109422</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>261</v>
@@ -3940,13 +3940,13 @@
         <v>120822</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>419</v>
@@ -3955,7 +3955,7 @@
         <v>230245</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>268</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
